--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-570185.0439032111</v>
+        <v>-572697.4522845765</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>102.9230408272514</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>24.14763241892591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>146.1335396869734</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4500493480611</v>
+        <v>70.89625736034148</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.29189690374316</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>60.48910589095144</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.25765126834939</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>238.9171930685451</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.72583184004559</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506828</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.2241192381678</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>89.5615446202913</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465662</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>39.56681219551238</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4262124629327</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581219</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.8319184229588</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>121.8455631377175</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>175.3253504652203</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670967</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>227.5697937625666</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158797</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.4636264596498</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.181533884357</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1565.219016943946</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.953318337195</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2320.781373948479</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2320.781373948479</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.781373948479</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>913.8018420618818</v>
+        <v>849.3060382064463</v>
       </c>
       <c r="C4" t="n">
-        <v>766.1922060144339</v>
+        <v>680.3698552785394</v>
       </c>
       <c r="D4" t="n">
-        <v>766.1922060144339</v>
+        <v>530.2532158662036</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2791124320407</v>
+        <v>382.3401222838105</v>
       </c>
       <c r="F4" t="n">
-        <v>471.3891649341303</v>
+        <v>235.4501747859001</v>
       </c>
       <c r="G4" t="n">
-        <v>303.6863283088493</v>
+        <v>235.4501747859001</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>1258.944053934703</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.594421205412</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y4" t="n">
-        <v>913.8018420618818</v>
+        <v>1030.954503036686</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150257</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082752</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>584.6815723082752</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.56518664982</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379706</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2062.330773118626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1672.191441142814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>732.4676803942457</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>563.5314974663388</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>413.414858054003</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>413.414858054003</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>266.5249105560927</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>266.5249105560927</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>120.3077237739504</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1685.964050039457</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1431.27956183357</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1141.86239179661</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>913.8728408985925</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y7" t="n">
-        <v>693.0802617550623</v>
+        <v>914.1161452244854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3272.347405609125</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3066.369657993348</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.369657993348</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.306770649777</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>304.8914167017394</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>304.8914167017394</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>304.8914167017394</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>156.9783231193463</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>156.9783231193463</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>156.9783231193463</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>935.3220115735267</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>707.3324606755093</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>486.5398815319792</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5021,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263523</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356163</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232806</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.18473370455</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093763</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740073</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138429</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703128</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,16 +5823,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1095.661204897168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1814.638305710059</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>211.4566897748909</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7154,31 +7154,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038072</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311315</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>246.3179278901616</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>345.5834682595431</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.11328141165438</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.8587575539793</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>95.8699968758694</v>
       </c>
     </row>
     <row r="5">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.1428431935248</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.1584408891621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405059</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>32.75273492913595</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.6820817884486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.8640922513197</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>111.1976478713707</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.22910392194044</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>58.61468062667757</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>23.83108638657407</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758984</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
+        <v>262322.6448992518</v>
+      </c>
+      <c r="J2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>262322.644899252</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="M2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="L2" t="n">
-        <v>262322.6448992519</v>
-      </c>
-      <c r="M2" t="n">
-        <v>262322.644899252</v>
-      </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26366,13 +26366,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363207</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27056.18620085767</v>
+        <v>27056.18620085788</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820648</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26439,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994853</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234675.228713945</v>
+        <v>-1234965.835878791</v>
       </c>
       <c r="C6" t="n">
-        <v>65500.84779629232</v>
+        <v>65500.84779629258</v>
       </c>
       <c r="D6" t="n">
-        <v>65500.84779629254</v>
+        <v>65500.84779629239</v>
       </c>
       <c r="E6" t="n">
-        <v>-178429.0988088655</v>
+        <v>-178463.8367343016</v>
       </c>
       <c r="F6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="G6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="H6" t="n">
-        <v>146983.36299849</v>
+        <v>146948.6250730539</v>
       </c>
       <c r="I6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.6250730539</v>
       </c>
       <c r="J6" t="n">
-        <v>-70547.83939878765</v>
+        <v>-70582.57732422352</v>
       </c>
       <c r="K6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.6250730545</v>
       </c>
       <c r="L6" t="n">
-        <v>146983.3629984899</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="M6" t="n">
-        <v>61928.33506297795</v>
+        <v>61893.59713754218</v>
       </c>
       <c r="N6" t="n">
-        <v>122039.1300183963</v>
+        <v>122039.1300183967</v>
       </c>
       <c r="O6" t="n">
-        <v>141466.8480120286</v>
+        <v>141466.8480120284</v>
       </c>
       <c r="P6" t="n">
-        <v>141466.8480120283</v>
+        <v>141466.8480120284</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,28 +26960,28 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>6.304965566259682</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>122.7146564762254</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.4419447597374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>346.38693985076</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>43.09476914148873</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>47.29464513706782</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.46192994813024</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194521</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.60786094376951</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>55.19347029402948</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,16 +32552,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832331</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,16 +35492,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066265</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998999</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998998</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
